--- a/OpenCart-TestScenario.xlsx
+++ b/OpenCart-TestScenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subun\Desktop\Quality Assurance\Self Testing\My Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB4183-099A-4CE7-B060-5836D04B7B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47E499-10E4-4D61-98E1-E1126F698831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F3069C29-086F-4810-867B-5627CFF49659}"/>
   </bookViews>
@@ -380,9 +380,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,13 +393,16 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC78D00-7228-4D83-914C-43EA9222602E}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="43" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -735,606 +735,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.65">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
-        <v>45550</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>45611</v>
-      </c>
+      <c r="B7" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>3</v>
       </c>
     </row>
